--- a/docs/mcode-r4/obf-OnBehalfOf-extension.xlsx
+++ b/docs/mcode-r4/obf-OnBehalfOf-extension.xlsx
@@ -216,13 +216,13 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-OnBehalfOf-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-OnBehalfOf-extension</t>
   </si>
   <si>
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|RelatedPerson|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/obf-OnBehalfOf-extension.xlsx
+++ b/docs/mcode-r4/obf-OnBehalfOf-extension.xlsx
@@ -222,7 +222,7 @@
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|RelatedPerson|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|RelatedPerson|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|Device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
